--- a/NLP_Transfer_Learning_Methods/Word2Vec/Frequent_Words_and_Clusters.xlsx
+++ b/NLP_Transfer_Learning_Methods/Word2Vec/Frequent_Words_and_Clusters.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Frequent Words" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Frequent Clusters" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Clusters" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,199 +449,199 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tax</t>
+          <t>shall</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tax</t>
+          <t>shall</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>certain</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>certain</t>
+          <t>year</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>taxable</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>taxable</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>subsection</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>subsection</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rules</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rules</t>
+          <t>amount</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>taxes</t>
+          <t>tax</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>taxes</t>
+          <t>tax</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>provisions</t>
+          <t>purposes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>provisions</t>
+          <t>purposes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>returns</t>
+          <t>paragraph</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>paragraph</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>foreign</t>
+          <t>respect</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>foreign</t>
+          <t>respect</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>income</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>returns</t>
+          <t>income</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>property</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>definitions</t>
+          <t>property</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>definitions</t>
+          <t>term</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>shall</t>
+          <t>secretary</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>relating</t>
+          <t>secretary</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>relating</t>
+          <t>term</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>failure</t>
+          <t>case</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>case</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>corporation</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>corporation</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>taxable</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>stat</t>
+          <t>plan</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>etc</t>
+          <t>general</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -653,192 +653,192 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>united</t>
+          <t>person</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>taxable</t>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>corporations</t>
+          <t>qualified</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>corporations</t>
+          <t>described</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>described</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>may</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>shall</t>
+          <t>may</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>united</t>
+          <t>subparagraph</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>subparagraph</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>stat</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>treated</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>failure</t>
+          <t>qualified</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>period</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>treated</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>xix</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>etc</t>
+          <t>date</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>stat</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>states</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>payment</t>
+          <t>states</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>imposed</t>
+          <t>period</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>respect</t>
+          <t>apply</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>spirits</t>
+          <t>united</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>imposition</t>
+          <t>united</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>apply</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cross</t>
+          <t>taxpayer</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>payment</t>
+          <t>taxpayer</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>estate</t>
+          <t>means</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>respect</t>
+          <t>made</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>plans</t>
+          <t>made</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>distilled</t>
+          <t>means</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>qualified</t>
+          <t>determined</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>determined</t>
         </is>
       </c>
     </row>
@@ -850,199 +850,799 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>interest</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>imposed</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>provided</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>applicable</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>secretary</t>
+          <t>individual</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>references</t>
+          <t>stock</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>insurance</t>
+          <t>stock</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>insurance</t>
+          <t>regulations</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>estate</t>
+          <t>regulations</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>penalty</t>
+          <t>percent</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>liability</t>
+          <t>account</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>liability</t>
+          <t>account</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>plans</t>
+          <t>foreign</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>gain</t>
+          <t>paid</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>qualified</t>
+          <t>percent</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>trusts</t>
+          <t>foreign</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>basis</t>
+          <t>paid</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>payments</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>applicable</t>
+          <t>imposed</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>spirits</t>
+          <t>imposed</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>gross</t>
+          <t>credit</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>return</t>
+          <t>business</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>xix</t>
+          <t>business</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>defined</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cross</t>
+          <t>defined</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>basis</t>
+          <t>certain</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>penalty</t>
+          <t>return</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>penalties</t>
+          <t>return</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>imposition</t>
+          <t>certain</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>distilled</t>
+          <t>within</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>requirements</t>
+          <t>trust</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>deductions</t>
+          <t>employee</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>required</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>trust</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>within</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>payment</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>gross</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>applicable</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>gross</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>employer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>applicable</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>rules</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>employer</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rules</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>except</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>except</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>deduction</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>deduction</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>iii</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>iii</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>basis</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>basis</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>act</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>act</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>requirements</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>relating</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>relating</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>amounts</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>amounts</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>calendar</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>calendar</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>extent</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>extent</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>provisions</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>used</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>provisions</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>preceding</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>preceding</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>allowed</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>added</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>beginning</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>clause</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>clause</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>allowed</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>excess</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>insurance</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>added</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>beginning</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>insurance</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>excess</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>contract</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>partnership</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>distribution</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>rule</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>rule</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>partnership</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>received</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>received</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>taken</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>meaning</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>taxes</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1685,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Frequent Topics 2017</t>
+          <t>2017 Clusters</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -1098,7 +1698,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>returns, property, credit, failure, etc, corporations, shall, information, case, stock</t>
+          <t>secretary, may, regulations</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1709,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rules, definitions, treatment, payment, estate, applicable, business, penalties</t>
+          <t>income, corporation, interest, stock, foreign, business, return, gross, except, election</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1720,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>tax, certain</t>
+          <t>shall, respect, property, term, person, qualified, described, states, united, taxpayer</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1731,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>special, general, taxable, states, xix, imposition, qualified, imposed, references, liability</t>
+          <t>tax, purposes, case, general, treated, stat, apply, means, provided, defined</t>
         </is>
       </c>
     </row>
@@ -1142,14 +1742,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>income, taxes, provisions, foreign, relating, united, respect, insurance, penalty, distilled</t>
+          <t>year, taxable, subsection, amount, paragraph, plan, subparagraph, period, date, made</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Frequent Topics 2018</t>
+          <t>2018 Clusters</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1162,7 +1762,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>rules, credit, general, corporations, interest, liability, plans, applicable, gross, cross</t>
+          <t>secretary, regulations</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1773,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>tax, certain, spirits, secretary</t>
+          <t>shall, subsection, amount, paragraph, income, property, corporation, plan, person, may</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1784,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>income, property, foreign, returns, shall, case, respect, distilled, person</t>
+          <t>purposes, respect, term, case, general, described, qualified, treated, states, apply</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1795,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>definitions, oct, stat, dec, xix, imposition</t>
+          <t>tax, stat, foreign, credit, certain, item, part, deduction, act, special</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>special, taxes, provisions, relating, taxable, states, united, failure, information, etc</t>
+          <t>year, taxable, date, period, years, calendar, service, beginning, day</t>
         </is>
       </c>
     </row>

--- a/NLP_Transfer_Learning_Methods/Word2Vec/Frequent_Words_and_Clusters.xlsx
+++ b/NLP_Transfer_Learning_Methods/Word2Vec/Frequent_Words_and_Clusters.xlsx
@@ -1709,7 +1709,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>income, corporation, interest, stock, foreign, business, return, gross, except, election</t>
+          <t>property, corporation, interest, stock, foreign, business, item, basis, without, loss</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>shall, respect, property, term, person, qualified, described, states, united, taxpayer</t>
+          <t>purposes, term, case, general, qualified, described, apply, means, provided, defined</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tax, purposes, case, general, treated, stat, apply, means, provided, defined</t>
+          <t>shall, subsection, paragraph, person, subparagraph, stat, states, united, percent, trust</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>year, taxable, subsection, amount, paragraph, plan, subparagraph, period, date, made</t>
+          <t>year, taxable, amount, tax, respect, income, plan, treated, period, date</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>secretary, regulations</t>
+          <t>secretary, may, regulations, return, required, information</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>shall, subsection, amount, paragraph, income, property, corporation, plan, person, may</t>
+          <t>shall, subsection, amount, paragraph, respect, income, property, corporation, plan, person</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>purposes, respect, term, case, general, described, qualified, treated, states, apply</t>
+          <t>purposes, term, case, general, described, qualified, treated, apply, made, means</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>tax, stat, foreign, credit, certain, item, part, deduction, act, special</t>
+          <t>tax, stat, states, foreign, credit, certain, item, part, deduction, act</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>year, taxable, date, period, years, calendar, service, beginning, day</t>
+          <t>year, taxable, date, period, percent, business, years, loss, calendar, beginning</t>
         </is>
       </c>
     </row>
